--- a/biology/Zoologie/Charaxes_borneensis/Charaxes_borneensis.xlsx
+++ b/biology/Zoologie/Charaxes_borneensis/Charaxes_borneensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases borneensis est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes borneensis a été nommé par Butler en 1869[1].
-Sous-espèces
-Charaxes borneensis borneensis présent à Bornéo.
-Charaxes borneensis daemoniacus Fruhstorfer, 1914; présent à Sumatra.
-Charaxes borneensis praestantius Fruhstorfer, 1914; présent en Malaisie.
-Charaxes borneensis vandepolli Lathy, 1913; présent à Nias[1].
-Noms vernaculaires
-Charaxes  borneensis se nomme  en anglais
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes borneensis a été nommé par Butler en 1869.
 </t>
         </is>
       </c>
@@ -546,10 +553,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes borneensis borneensis présent à Bornéo.
+Charaxes borneensis daemoniacus Fruhstorfer, 1914; présent à Sumatra.
+Charaxes borneensis praestantius Fruhstorfer, 1914; présent en Malaisie.
+Charaxes borneensis vandepolli Lathy, 1913; présent à Nias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charaxes_borneensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_borneensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes  borneensis se nomme  en anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charaxes_borneensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_borneensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes  borneensis est un grand papillon au-dessus cuivre avec aux ailes antérieures une large bande marginale marron doublée d'une bande blanche et aux postérieures une ligne submarginale de taches marron pupillées de blanc. 
 Le dessous est jaune cuivré avec des bandes plus foncées et d'autres plus claires.
@@ -557,69 +642,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Charaxes_borneensis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charaxes_borneensis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Océanie, à Bornéo,  Sumatra, Nias et en Malaisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Charaxes_borneensis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charaxes_borneensis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Océanie, à Bornéo,  Sumatra, Nias et en Malaisie[1].
-Biotope
-Il réside dans la forêt tropicale humide[2]
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale humide
 Sur les autres projets Wikimedia :
 Charaxes borneensis, sur Wikimedia CommonsCharaxes borneensis, sur Wikispecies
-Protection
-Pas de protection : il est en vente libre sur internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_borneensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_borneensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 </t>
         </is>
       </c>
